--- a/2023-CIGA-GMTK/Assets/Spells.xlsx
+++ b/2023-CIGA-GMTK/Assets/Spells.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repos\GMTK\2023-CIGA-GMTK\2023-CIGA-GMTK\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DB8AC9-634A-4052-AE5A-387788842488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="11844" windowHeight="6815"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
   <si>
     <t>中文名</t>
   </si>
@@ -298,14 +304,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,345 +314,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -660,313 +337,3006 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>火属性技能伤害与容量消耗对比</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20671522309711285"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9675-4546-941E-069AA93A7844}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9675-4546-941E-069AA93A7844}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="256678799"/>
+        <c:axId val="256675439"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="256678799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256675439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="256675439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256678799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>水属性技能伤害与容量消耗对比</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$10:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C13C-4067-A08E-B94621A6653B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$10:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C13C-4067-A08E-B94621A6653B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="255461983"/>
+        <c:axId val="255463903"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="255461983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255463903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="255463903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255461983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>雷属性伤害与容量消耗对比</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$18:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C9C-42FF-824E-D0BA41F04295}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$18:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C9C-42FF-824E-D0BA41F04295}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="343886767"/>
+        <c:axId val="343887247"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="343886767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343887247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="343887247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343886767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DFF46C-D3D7-153E-8BD4-B357C2EFFB2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1577975</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F7313D-CDB2-9197-FFCA-BF3CF91F1518}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1793875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E23538-5417-D6D8-6C51-D9E946584E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EB071FA-2E51-4AAE-8F70-0C95DC228708}" name="Table2" displayName="Table2" ref="F1:G8" totalsRowShown="0">
+  <autoFilter ref="F1:G8" xr:uid="{4EB071FA-2E51-4AAE-8F70-0C95DC228708}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{9B5D8E61-A4C5-42A9-A2EF-AD9919277489}" name="容量消耗"/>
+    <tableColumn id="2" xr3:uid="{DACB0CE7-6D39-4858-B756-D8D855E7EB5D}" name="伤害"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1221,26 +3591,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="26.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="48.0833333333333" customWidth="1"/>
-    <col min="9" max="9" width="24.9166666666667" customWidth="1"/>
+    <col min="1" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="48.08203125" customWidth="1"/>
+    <col min="9" max="9" width="24.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +3639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1298,7 +3668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1327,7 +3697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1344,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1356,7 +3726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1385,7 +3755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1414,7 +3784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1434,13 +3804,13 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1460,13 +3830,13 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1495,7 +3865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1524,7 +3894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1540,8 +3910,8 @@
       <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="F12" t="s">
-        <v>47</v>
+      <c r="F12">
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1553,7 +3923,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1582,7 +3952,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1611,7 +3981,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1637,7 +4007,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1663,7 +4033,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1692,7 +4062,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -1721,7 +4091,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -1750,7 +4120,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -1779,7 +4149,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -1808,7 +4178,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1834,7 +4204,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -1860,7 +4230,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -1890,7 +4260,11 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/2023-CIGA-GMTK/Assets/Spells.xlsx
+++ b/2023-CIGA-GMTK/Assets/Spells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repos\GMTK\2023-CIGA-GMTK\2023-CIGA-GMTK\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DB8AC9-634A-4052-AE5A-387788842488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1955A5E4-FE4E-449A-81CA-5933B77856E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="115">
   <si>
     <t>中文名</t>
   </si>
@@ -299,13 +299,100 @@
   </si>
   <si>
     <t>万象天雷-2</t>
+  </si>
+  <si>
+    <t>Pined, 5 damage, will return to hand the next round after casting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal yourself for 5 hp, and gain 20% more damage for next 1 cast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain invulnerability for fire and lightning, and 50% percent less for water, last 1 turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chant for 1 turn, then your next spell will cast twice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burn the enemy, and interrupt its chant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chant for 1 turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chant for 1 turn then summon a fire minion, which will due 40 damage and burn all the enemies when die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pined, due damage and heal yourself, the target will receive 10% more damage for 1 turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The target (enemy or yourself) will skip a turn and be invulnerable for 1 turn, if the target is enemy will receive 40% more damage in the next turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The target (enemy or yourself) will skip a turn and be invulnerable for 1 turn, if the target is enemy will receive 41% more damage in the next turn</t>
+  </si>
+  <si>
+    <t>Due damage and heal yourself, your next spell will heal yourself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chant for 1 turn, then summon a water minion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due damage to all the enemies, they will receive 30% more damage and interrupt their chant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due damage, if target is killed by this spell, you gain 10% of its max hp and then heal yourself 50% of its max hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pined, due damage, and have 50% chance of critical hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chant for 1 turn, and palsy the target for 3 turns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palsy the target for 1 turn and due damage, have 50% chance of critical hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain 50% chance of critical hit, and 30% more critical damage, last for 2 turns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due damage to all enemies, and palsy them for 1 turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due damage to all enemies, they receive 100% more damage for the next turn, gain 50% change of critical hit and 50% more critical damage, last for 2 turns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chant for 1 turn, gain double casting and -1 spell cost for this whole fight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due damage to all enemies, palsy for 2 turns, and heal yourself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +402,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -341,8 +436,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,21 +587,6 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref> </c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9675-4546-941E-069AA93A7844}"/>
             </c:ext>
@@ -558,21 +639,6 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref> </c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9675-4546-941E-069AA93A7844}"/>
             </c:ext>
@@ -3597,10 +3663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3608,9 +3674,10 @@
     <col min="1" max="7" width="26.33203125" customWidth="1"/>
     <col min="8" max="8" width="48.08203125" customWidth="1"/>
     <col min="9" max="9" width="24.9140625" customWidth="1"/>
+    <col min="10" max="10" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3639,7 +3706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3667,8 +3734,11 @@
       <c r="I2" t="s">
         <v>13</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3696,8 +3766,11 @@
       <c r="I3" t="s">
         <v>17</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3725,8 +3798,11 @@
       <c r="I4" t="s">
         <v>21</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3754,8 +3830,11 @@
       <c r="I5" t="s">
         <v>25</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3783,8 +3862,11 @@
       <c r="I6" t="s">
         <v>29</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3809,8 +3891,11 @@
       <c r="H7" t="s">
         <v>32</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3835,8 +3920,11 @@
       <c r="H8" t="s">
         <v>35</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -3864,8 +3952,11 @@
       <c r="I10" t="s">
         <v>40</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -3893,8 +3984,11 @@
       <c r="I11" t="s">
         <v>44</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -3922,8 +4016,11 @@
       <c r="I12" t="s">
         <v>44</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3951,8 +4048,11 @@
       <c r="I13" t="s">
         <v>51</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -3980,8 +4080,11 @@
       <c r="I14" t="s">
         <v>55</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -4006,8 +4109,11 @@
       <c r="H15" t="s">
         <v>58</v>
       </c>
+      <c r="J15" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -4032,8 +4138,11 @@
       <c r="H16" t="s">
         <v>61</v>
       </c>
+      <c r="J16" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4170,11 @@
       <c r="I18" t="s">
         <v>66</v>
       </c>
+      <c r="J18" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -4090,8 +4202,11 @@
       <c r="I19" t="s">
         <v>70</v>
       </c>
+      <c r="J19" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -4119,8 +4234,11 @@
       <c r="I20" t="s">
         <v>74</v>
       </c>
+      <c r="J20" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -4148,8 +4266,11 @@
       <c r="I21" t="s">
         <v>78</v>
       </c>
+      <c r="J21" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -4177,8 +4298,11 @@
       <c r="I22" t="s">
         <v>82</v>
       </c>
+      <c r="J22" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -4203,8 +4327,11 @@
       <c r="H23" t="s">
         <v>85</v>
       </c>
+      <c r="J23" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -4229,8 +4356,11 @@
       <c r="H24" t="s">
         <v>88</v>
       </c>
+      <c r="J24" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -4257,6 +4387,9 @@
       </c>
       <c r="I25" t="s">
         <v>92</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
